--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -731,6 +731,122 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_true_short</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brtrue.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_false_short</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brfalse.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_equal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beq.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
     </r>
   </si>
 </sst>
@@ -1110,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1387,19 +1503,37 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -836,6 +836,106 @@
         <scheme val="minor"/>
       </rPr>
       <t>beq.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_greater_or_equal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bge.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bge.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bge.un.s</t>
     </r>
     <r>
       <rPr>
@@ -1226,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1536,9 +1636,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -936,6 +936,106 @@
         <scheme val="minor"/>
       </rPr>
       <t>bge.un.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_greater</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bgt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bgt.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bgt.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bgt.un.s</t>
     </r>
     <r>
       <rPr>
@@ -1326,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1647,9 +1747,15 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -1047,6 +1047,106 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_less_or_equal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ble.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ble.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ble.un.s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instructions.</t>
     </r>
   </si>
 </sst>
@@ -1426,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1758,9 +1858,15 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -1147,6 +1147,106 @@
         <scheme val="minor"/>
       </rPr>
       <t>instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_less</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blt.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blt.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blt.un.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
     </r>
   </si>
 </sst>
@@ -1526,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1869,9 +1969,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -953,6 +953,15 @@
     <t>branch_if_greater</t>
   </si>
   <si>
+    <t>branch_if_less_or_equal</t>
+  </si>
+  <si>
+    <t>branch_if_less</t>
+  </si>
+  <si>
+    <t>branch_if_not_equal</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">A program which uses </t>
     </r>
@@ -966,6 +975,57 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
+      <t>bne.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bne.un.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>bgt</t>
     </r>
     <r>
@@ -1012,7 +1072,58 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bgt.un</t>
+      <t xml:space="preserve">bgt.un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bgt.un.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ble</t>
     </r>
     <r>
       <rPr>
@@ -1035,22 +1146,65 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bgt.un.s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> instructions.</t>
-    </r>
-  </si>
-  <si>
-    <t>branch_if_less_or_equal</t>
+      <t>ble.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ble.un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ble.un.s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instructions.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1066,7 +1220,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ble</t>
+      <t>blt</t>
     </r>
     <r>
       <rPr>
@@ -1089,7 +1243,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ble.s</t>
+      <t>blt.s</t>
     </r>
     <r>
       <rPr>
@@ -1112,130 +1266,30 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ble.un</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ble.un.s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>instructions.</t>
-    </r>
-  </si>
-  <si>
-    <t>branch_if_less</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A program which uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>blt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>blt.s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>blt.un</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>blt.un.s</t>
+      <t xml:space="preserve">blt.un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blt.un.s</t>
     </r>
     <r>
       <rPr>
@@ -1626,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1954,7 +2008,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1962,10 +2016,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,16 +2027,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -1290,6 +1290,60 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> blt.un.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leave.s</t>
     </r>
     <r>
       <rPr>
@@ -1681,7 +1735,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2045,9 +2099,15 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -1344,6 +1344,60 @@
         <scheme val="minor"/>
       </rPr>
       <t>leave.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>add_overflow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add.ovf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add.ovf.un</t>
     </r>
     <r>
       <rPr>
@@ -1735,7 +1789,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2110,9 +2164,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -1409,6 +1409,37 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
     </r>
   </si>
 </sst>
@@ -1788,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2175,9 +2206,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -1440,6 +1440,60 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">div.un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instructions.</t>
     </r>
   </si>
 </sst>
@@ -1819,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2217,9 +2271,15 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -1494,6 +1494,83 @@
         <scheme val="minor"/>
       </rPr>
       <t>instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sub.ovf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sub.ovf.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
     </r>
   </si>
 </sst>
@@ -1874,7 +1951,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2282,9 +2359,15 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -1560,6 +1560,83 @@
         <scheme val="minor"/>
       </rPr>
       <t>sub.ovf.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mul.ovf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mul.ovf.un</t>
     </r>
     <r>
       <rPr>
@@ -1951,7 +2028,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2370,9 +2447,15 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -1637,6 +1637,60 @@
         <scheme val="minor"/>
       </rPr>
       <t>mul.ovf.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xor</t>
     </r>
     <r>
       <rPr>
@@ -2027,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2458,9 +2512,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -1702,6 +1702,60 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>shifts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instructions.</t>
     </r>
   </si>
 </sst>
@@ -2081,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2523,9 +2577,15 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -1756,6 +1756,83 @@
         <scheme val="minor"/>
       </rPr>
       <t>instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
     </r>
   </si>
 </sst>
@@ -2136,7 +2213,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2588,9 +2665,15 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -1822,6 +1822,60 @@
         <scheme val="minor"/>
       </rPr>
       <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>cgt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cgt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cgt.un</t>
     </r>
     <r>
       <rPr>
@@ -2213,7 +2267,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2676,9 +2730,15 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -1876,6 +1876,60 @@
         <scheme val="minor"/>
       </rPr>
       <t>cgt.un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>clt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clt.un</t>
     </r>
     <r>
       <rPr>
@@ -2267,7 +2321,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2741,9 +2795,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>

--- a/docs/test_programs_descriptions/simple_programs.xlsx
+++ b/docs/test_programs_descriptions/simple_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -1941,6 +1941,37 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>ceq</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
     </r>
   </si>
 </sst>
@@ -2321,7 +2352,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2806,9 +2837,15 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
